--- a/src/main/resources/PersonDetails.xlsx
+++ b/src/main/resources/PersonDetails.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14235" windowHeight="6210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TESTCASE1" sheetId="1" r:id="rId1"/>
+    <sheet name="USERS" sheetId="2" r:id="rId2"/>
+    <sheet name="OPPORTUNITIES" sheetId="3" r:id="rId3"/>
+    <sheet name="TRACKS" sheetId="4" r:id="rId4"/>
+    <sheet name="TASK CATEGORY" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>Title</t>
   </si>
@@ -34,9 +38,6 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>Phone Numbers</t>
-  </si>
-  <si>
     <t>Email Address</t>
   </si>
   <si>
@@ -65,6 +66,87 @@
   </si>
   <si>
     <t>eclip.com</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Case Name</t>
+  </si>
+  <si>
+    <t>Selenium Coding Cahllenge</t>
+  </si>
+  <si>
+    <t>Challenge 3</t>
+  </si>
+  <si>
+    <t>Case Description</t>
+  </si>
+  <si>
+    <t>Case Tag</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>newuser@test.com</t>
+  </si>
+  <si>
+    <t>newUser</t>
+  </si>
+  <si>
+    <t>User name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>expert in selenium</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Due</t>
+  </si>
+  <si>
+    <t>Assignee</t>
+  </si>
+  <si>
+    <t>eclipse</t>
+  </si>
+  <si>
+    <t>Run Tests</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>Rupam Swain</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>expert9</t>
   </si>
 </sst>
 </file>
@@ -417,18 +499,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,42 +533,60 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
       </c>
       <c r="G2">
         <v>1234567890</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>16</v>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -492,4 +595,176 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>99</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/PersonDetails.xlsx
+++ b/src/main/resources/PersonDetails.xlsx
@@ -146,7 +146,7 @@
     <t>Test1</t>
   </si>
   <si>
-    <t>expert9</t>
+    <t>expert10</t>
   </si>
 </sst>
 </file>
